--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Andr\PycharmProjects\MietScheduleLoader\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\GitHub\MietScheduleLoader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA64DC71-034B-4C97-A563-9F06CC39D92B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1C0A80-0650-4E24-A083-C374D2FEE893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,28 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
-  <si>
-    <t>1 пара    9:00    10:30</t>
-  </si>
-  <si>
-    <t>2 пара    10:40    12:10</t>
-  </si>
-  <si>
-    <t>3 пара    12:20    13:50</t>
-  </si>
-  <si>
-    <t>4 пара    14:30    16:00</t>
-  </si>
-  <si>
-    <t>5 пара    16:10    17:40</t>
-  </si>
-  <si>
-    <t>6 пара    18:20    19:50</t>
-  </si>
-  <si>
-    <t>7 пара    20:00    21:30</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Понедельник</t>
   </si>
@@ -73,6 +52,30 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1 пара    9:00    10:20</t>
+  </si>
+  <si>
+    <t>2 пара    10:30    11:50</t>
+  </si>
+  <si>
+    <t>3 пара    12:00    13:20</t>
+  </si>
+  <si>
+    <t>4 пара    14:00    15:20</t>
+  </si>
+  <si>
+    <t>5 пара    15:30    16:50</t>
+  </si>
+  <si>
+    <t>6 пара    17:00    18:20</t>
+  </si>
+  <si>
+    <t>7 пара    18:30    19:50</t>
+  </si>
+  <si>
+    <t>8 пара    20:00    21:20</t>
   </si>
 </sst>
 </file>
@@ -136,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -217,11 +220,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -232,28 +244,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -541,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -559,370 +577,429 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4" t="s">
+      <c r="B18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="B22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1">
+      <c r="A26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23" spans="1:8" ht="30" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" ht="30" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1">
-      <c r="A26" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1">
-      <c r="A28" s="8"/>
-      <c r="B28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" customHeight="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="24">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
